--- a/Delhi_metro_launch_yr.xlsx
+++ b/Delhi_metro_launch_yr.xlsx
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="M130" sqref="M130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5745,6 +5745,12 @@
       <c r="I126">
         <v>77.151849999999996</v>
       </c>
+      <c r="J126">
+        <v>2011</v>
+      </c>
+      <c r="K126">
+        <v>8</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
@@ -5773,6 +5779,12 @@
       </c>
       <c r="I127">
         <v>77.157659999999993</v>
+      </c>
+      <c r="J127">
+        <v>2011</v>
+      </c>
+      <c r="K127">
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
